--- a/dist/gz.xlsx
+++ b/dist/gz.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>月份</t>
   </si>
@@ -216,7 +216,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>HuangLiLi</t>
+    <t>88888</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9898989</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +464,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,13 +799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEU2"/>
+  <dimension ref="A1:XEU6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17252,8 +17263,8 @@
       <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>53</v>
+      <c r="B2" s="39">
+        <v>9999</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>52</v>
@@ -17298,6 +17309,26 @@
       </c>
       <c r="X2" s="37">
         <v>2666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16375" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16375" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16375" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16375" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
